--- a/www/IndicatorsPerCountry/Peru_GDPperCapita_TerritorialRef_1946_2012_CCode_604.xlsx
+++ b/www/IndicatorsPerCountry/Peru_GDPperCapita_TerritorialRef_1946_2012_CCode_604.xlsx
@@ -486,13 +486,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Peru_GDPperCapita_TerritorialRef_1946_2012_CCode_604.xlsx
+++ b/www/IndicatorsPerCountry/Peru_GDPperCapita_TerritorialRef_1946_2012_CCode_604.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="342">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,427 +36,973 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>839.795378392</t>
-  </si>
-  <si>
-    <t>881.98594911</t>
-  </si>
-  <si>
-    <t>895.391460117</t>
-  </si>
-  <si>
-    <t>889.864817026</t>
-  </si>
-  <si>
-    <t>834.96989558</t>
-  </si>
-  <si>
-    <t>773.685619101</t>
-  </si>
-  <si>
-    <t>759.208582848</t>
-  </si>
-  <si>
-    <t>755.11818351</t>
-  </si>
-  <si>
-    <t>751.074243344</t>
-  </si>
-  <si>
-    <t>582.338234602</t>
-  </si>
-  <si>
-    <t>531.494900544</t>
-  </si>
-  <si>
-    <t>529.796605591</t>
-  </si>
-  <si>
-    <t>528.488203321</t>
-  </si>
-  <si>
-    <t>553.899501863</t>
-  </si>
-  <si>
-    <t>574.679797551</t>
-  </si>
-  <si>
-    <t>572.537469311</t>
-  </si>
-  <si>
-    <t>556.138901611</t>
-  </si>
-  <si>
-    <t>554.182704561</t>
-  </si>
-  <si>
-    <t>563.368023932</t>
-  </si>
-  <si>
-    <t>569.059025306</t>
-  </si>
-  <si>
-    <t>565.99959432</t>
-  </si>
-  <si>
-    <t>563.888902714</t>
-  </si>
-  <si>
-    <t>546.229696023</t>
-  </si>
-  <si>
-    <t>541.258553924</t>
-  </si>
-  <si>
-    <t>522.932867009</t>
-  </si>
-  <si>
-    <t>521.198883778</t>
-  </si>
-  <si>
-    <t>552.851915629</t>
-  </si>
-  <si>
-    <t>596.9097283</t>
-  </si>
-  <si>
-    <t>627.554394429</t>
-  </si>
-  <si>
-    <t>654.129895464</t>
-  </si>
-  <si>
-    <t>680.321662049</t>
-  </si>
-  <si>
-    <t>720.989969386</t>
-  </si>
-  <si>
-    <t>757.016840417</t>
-  </si>
-  <si>
-    <t>798.310454065</t>
-  </si>
-  <si>
-    <t>814.911366006</t>
-  </si>
-  <si>
-    <t>863.577863578</t>
-  </si>
-  <si>
-    <t>920.94560244</t>
-  </si>
-  <si>
-    <t>966.365461847</t>
-  </si>
-  <si>
-    <t>972.483886961</t>
-  </si>
-  <si>
-    <t>976.499388005</t>
-  </si>
-  <si>
-    <t>980.904036742</t>
-  </si>
-  <si>
-    <t>989.496299833</t>
-  </si>
-  <si>
-    <t>1011.55115512</t>
-  </si>
-  <si>
-    <t>1032.36321304</t>
-  </si>
-  <si>
-    <t>1013.10344828</t>
-  </si>
-  <si>
-    <t>1086.71963678</t>
-  </si>
-  <si>
-    <t>1184.52914798</t>
-  </si>
-  <si>
-    <t>1212.75182643</t>
-  </si>
-  <si>
-    <t>1204.8535199</t>
-  </si>
-  <si>
-    <t>1229.54005614</t>
-  </si>
-  <si>
-    <t>1226.22601279</t>
-  </si>
-  <si>
-    <t>1257.13685978</t>
-  </si>
-  <si>
-    <t>1344.56386937</t>
-  </si>
-  <si>
-    <t>1414.93691494</t>
-  </si>
-  <si>
-    <t>1524.03846154</t>
-  </si>
-  <si>
-    <t>1540.23668639</t>
-  </si>
-  <si>
-    <t>1670.29126214</t>
-  </si>
-  <si>
-    <t>1673.80497132</t>
-  </si>
-  <si>
-    <t>1754.32981928</t>
-  </si>
-  <si>
-    <t>1907.52409192</t>
-  </si>
-  <si>
-    <t>1662.95620438</t>
-  </si>
-  <si>
-    <t>1504.04022266</t>
-  </si>
-  <si>
-    <t>1423.14487633</t>
-  </si>
-  <si>
-    <t>1557.89290682</t>
-  </si>
-  <si>
-    <t>1740.33527198</t>
-  </si>
-  <si>
-    <t>1873.08533917</t>
-  </si>
-  <si>
-    <t>1931.43424975</t>
-  </si>
-  <si>
-    <t>1926.02248656</t>
-  </si>
-  <si>
-    <t>1924.96392496</t>
-  </si>
-  <si>
-    <t>1904.5440202</t>
-  </si>
-  <si>
-    <t>1910.71428571</t>
-  </si>
-  <si>
-    <t>1880.45801527</t>
-  </si>
-  <si>
-    <t>1806.51456019</t>
-  </si>
-  <si>
-    <t>1804.16174734</t>
-  </si>
-  <si>
-    <t>1926.00116077</t>
-  </si>
-  <si>
-    <t>1963.7660485</t>
-  </si>
-  <si>
-    <t>2005.04908836</t>
-  </si>
-  <si>
-    <t>2026.75124104</t>
-  </si>
-  <si>
-    <t>2058.56832972</t>
-  </si>
-  <si>
-    <t>2176.61956812</t>
-  </si>
-  <si>
-    <t>2307.63183754</t>
-  </si>
-  <si>
-    <t>2425.69829547</t>
-  </si>
-  <si>
-    <t>2487.38427801</t>
-  </si>
-  <si>
-    <t>2578.56440034</t>
-  </si>
-  <si>
-    <t>2582.81046525</t>
-  </si>
-  <si>
-    <t>2702.99256184</t>
-  </si>
-  <si>
-    <t>2751.29423127</t>
-  </si>
-  <si>
-    <t>2809.50350423</t>
-  </si>
-  <si>
-    <t>2742.98423915</t>
-  </si>
-  <si>
-    <t>2682.49497815</t>
-  </si>
-  <si>
-    <t>2969.08669822</t>
-  </si>
-  <si>
-    <t>3142.15806215</t>
-  </si>
-  <si>
-    <t>3280.55912138</t>
-  </si>
-  <si>
-    <t>3334.44179645</t>
-  </si>
-  <si>
-    <t>3465.15906134</t>
-  </si>
-  <si>
-    <t>3593.95847322</t>
-  </si>
-  <si>
-    <t>3788.35916042</t>
-  </si>
-  <si>
-    <t>3830.55010633</t>
-  </si>
-  <si>
-    <t>3685.47611414</t>
-  </si>
-  <si>
-    <t>3676.48549002</t>
-  </si>
-  <si>
-    <t>3854.22351586</t>
-  </si>
-  <si>
-    <t>3915.81848868</t>
-  </si>
-  <si>
-    <t>3929.64377593</t>
-  </si>
-  <si>
-    <t>4022.84272803</t>
-  </si>
-  <si>
-    <t>4119.33763074</t>
-  </si>
-  <si>
-    <t>4325.97712094</t>
-  </si>
-  <si>
-    <t>4270.60618695</t>
-  </si>
-  <si>
-    <t>4156.947371</t>
-  </si>
-  <si>
-    <t>4049.06691984</t>
-  </si>
-  <si>
-    <t>4180.79757968</t>
-  </si>
-  <si>
-    <t>4262.83490461</t>
-  </si>
-  <si>
-    <t>4342.37550886</t>
-  </si>
-  <si>
-    <t>4247.12485555</t>
-  </si>
-  <si>
-    <t>3594.1046743</t>
-  </si>
-  <si>
-    <t>3675.66145916</t>
-  </si>
-  <si>
-    <t>3666.06628242</t>
-  </si>
-  <si>
-    <t>3946.00856208</t>
-  </si>
-  <si>
-    <t>4192.20907298</t>
-  </si>
-  <si>
-    <t>3766.44133269</t>
-  </si>
-  <si>
-    <t>3237.01007045</t>
-  </si>
-  <si>
-    <t>3008.28703704</t>
-  </si>
-  <si>
-    <t>3028.22859194</t>
-  </si>
-  <si>
-    <t>2952.72682239</t>
-  </si>
-  <si>
-    <t>3029.95742231</t>
-  </si>
-  <si>
-    <t>3351.227492</t>
-  </si>
-  <si>
-    <t>3572.67353442</t>
-  </si>
-  <si>
-    <t>3598.82988624</t>
-  </si>
-  <si>
-    <t>3782.66213762</t>
-  </si>
-  <si>
-    <t>3699.83554629</t>
-  </si>
-  <si>
-    <t>3679.94957259</t>
-  </si>
-  <si>
-    <t>3736.81780483</t>
-  </si>
-  <si>
-    <t>3695.3813886</t>
-  </si>
-  <si>
-    <t>3831.40305607</t>
-  </si>
-  <si>
-    <t>3936.92738874</t>
-  </si>
-  <si>
-    <t>4084.05955609</t>
-  </si>
-  <si>
-    <t>4313.14955872</t>
-  </si>
-  <si>
-    <t>4595.636714</t>
-  </si>
-  <si>
-    <t>4949.58758168</t>
-  </si>
-  <si>
-    <t>5375.59172061</t>
-  </si>
-  <si>
-    <t>5364.62491814</t>
-  </si>
-  <si>
-    <t>5773.59548004</t>
+    <t>880</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>1172</t>
+  </si>
+  <si>
+    <t>1178</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>1294</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>944</t>
+  </si>
+  <si>
+    <t>939</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1164</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>1227</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>1183</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>1186</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>1277</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>1344</t>
+  </si>
+  <si>
+    <t>1342</t>
+  </si>
+  <si>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>1318</t>
+  </si>
+  <si>
+    <t>1309</t>
+  </si>
+  <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>1278</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>1149</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>917</t>
+  </si>
+  <si>
+    <t>889</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>669</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>684</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>765</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>843</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>1267</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1675</t>
+  </si>
+  <si>
+    <t>1747</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t>1757</t>
+  </si>
+  <si>
+    <t>1777</t>
+  </si>
+  <si>
+    <t>1627</t>
+  </si>
+  <si>
+    <t>1792</t>
+  </si>
+  <si>
+    <t>1637</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <t>859</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>846</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>1299</t>
+  </si>
+  <si>
+    <t>1377</t>
+  </si>
+  <si>
+    <t>1468</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>1556</t>
+  </si>
+  <si>
+    <t>1564</t>
+  </si>
+  <si>
+    <t>1576</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>1645</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>1889</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2144</t>
+  </si>
+  <si>
+    <t>2255</t>
+  </si>
+  <si>
+    <t>2429</t>
+  </si>
+  <si>
+    <t>2455</t>
+  </si>
+  <si>
+    <t>2662</t>
+  </si>
+  <si>
+    <t>2668</t>
+  </si>
+  <si>
+    <t>2796</t>
+  </si>
+  <si>
+    <t>3041</t>
+  </si>
+  <si>
+    <t>2651</t>
+  </si>
+  <si>
+    <t>2397</t>
+  </si>
+  <si>
+    <t>2268</t>
+  </si>
+  <si>
+    <t>2483</t>
+  </si>
+  <si>
+    <t>2774</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>3078</t>
+  </si>
+  <si>
+    <t>3070</t>
+  </si>
+  <si>
+    <t>3068</t>
+  </si>
+  <si>
+    <t>3037</t>
+  </si>
+  <si>
+    <t>3046</t>
+  </si>
+  <si>
+    <t>2997</t>
+  </si>
+  <si>
+    <t>2880</t>
+  </si>
+  <si>
+    <t>2876</t>
+  </si>
+  <si>
+    <t>3131</t>
+  </si>
+  <si>
+    <t>3196</t>
+  </si>
+  <si>
+    <t>3231</t>
+  </si>
+  <si>
+    <t>3282</t>
+  </si>
+  <si>
+    <t>3470</t>
+  </si>
+  <si>
+    <t>3679</t>
+  </si>
+  <si>
+    <t>3867</t>
+  </si>
+  <si>
+    <t>3964</t>
+  </si>
+  <si>
+    <t>4111</t>
+  </si>
+  <si>
+    <t>4117</t>
+  </si>
+  <si>
+    <t>4309</t>
+  </si>
+  <si>
+    <t>4385</t>
+  </si>
+  <si>
+    <t>4479</t>
+  </si>
+  <si>
+    <t>4372</t>
+  </si>
+  <si>
+    <t>4275</t>
+  </si>
+  <si>
+    <t>4733</t>
+  </si>
+  <si>
+    <t>5008</t>
+  </si>
+  <si>
+    <t>5230</t>
+  </si>
+  <si>
+    <t>5314</t>
+  </si>
+  <si>
+    <t>5523</t>
+  </si>
+  <si>
+    <t>5729</t>
+  </si>
+  <si>
+    <t>6038</t>
+  </si>
+  <si>
+    <t>6107</t>
+  </si>
+  <si>
+    <t>5874</t>
+  </si>
+  <si>
+    <t>5859</t>
+  </si>
+  <si>
+    <t>6143</t>
+  </si>
+  <si>
+    <t>6242</t>
+  </si>
+  <si>
+    <t>6264</t>
+  </si>
+  <si>
+    <t>6413</t>
+  </si>
+  <si>
+    <t>6566</t>
+  </si>
+  <si>
+    <t>6896</t>
+  </si>
+  <si>
+    <t>6808</t>
+  </si>
+  <si>
+    <t>6626</t>
+  </si>
+  <si>
+    <t>6454</t>
+  </si>
+  <si>
+    <t>6664</t>
+  </si>
+  <si>
+    <t>6795</t>
+  </si>
+  <si>
+    <t>6921</t>
+  </si>
+  <si>
+    <t>6770</t>
+  </si>
+  <si>
+    <t>5844</t>
+  </si>
+  <si>
+    <t>6290</t>
+  </si>
+  <si>
+    <t>6682</t>
+  </si>
+  <si>
+    <t>6003</t>
+  </si>
+  <si>
+    <t>5160</t>
+  </si>
+  <si>
+    <t>4795</t>
+  </si>
+  <si>
+    <t>4812.21178368393</t>
+  </si>
+  <si>
+    <t>4698.48304766501</t>
+  </si>
+  <si>
+    <t>4857.02115391511</t>
+  </si>
+  <si>
+    <t>5361.42262243344</t>
+  </si>
+  <si>
+    <t>5668.0328528657</t>
+  </si>
+  <si>
+    <t>5739.79004436521</t>
+  </si>
+  <si>
+    <t>6027.81643810785</t>
+  </si>
+  <si>
+    <t>5926.73292228117</t>
+  </si>
+  <si>
+    <t>5945.19533112335</t>
+  </si>
+  <si>
+    <t>6038.24442697661</t>
+  </si>
+  <si>
+    <t>6010.2250324861</t>
+  </si>
+  <si>
+    <t>6274.41848688914</t>
+  </si>
+  <si>
+    <t>6472.340881282</t>
+  </si>
+  <si>
+    <t>6731.00468731625</t>
+  </si>
+  <si>
+    <t>7091.13329682565</t>
+  </si>
+  <si>
+    <t>7560.89717559048</t>
+  </si>
+  <si>
+    <t>8138.36496876731</t>
+  </si>
+  <si>
+    <t>8812.6181817338</t>
+  </si>
+  <si>
+    <t>8836.0166075641</t>
+  </si>
+  <si>
+    <t>9507.7801294655</t>
+  </si>
+  <si>
+    <t>10044</t>
+  </si>
+  <si>
+    <t>10533</t>
+  </si>
+  <si>
+    <t>11034</t>
+  </si>
+  <si>
+    <t>11186</t>
+  </si>
+  <si>
+    <t>11445</t>
+  </si>
+  <si>
+    <t>11776</t>
   </si>
   <si>
     <t>Description</t>
@@ -571,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1870.0</v>
+        <v>1595.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -588,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1871.0</v>
+        <v>1596.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -605,7 +1151,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1872.0</v>
+        <v>1597.0</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -622,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1873.0</v>
+        <v>1598.0</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -639,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1874.0</v>
+        <v>1599.0</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -656,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1875.0</v>
+        <v>1600.0</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -673,7 +1219,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1876.0</v>
+        <v>1601.0</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -690,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1877.0</v>
+        <v>1602.0</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -707,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1878.0</v>
+        <v>1603.0</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -724,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1879.0</v>
+        <v>1604.0</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -741,10 +1287,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1880.0</v>
+        <v>1605.0</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -758,10 +1304,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1881.0</v>
+        <v>1606.0</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -775,10 +1321,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1882.0</v>
+        <v>1607.0</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -792,10 +1338,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1883.0</v>
+        <v>1608.0</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -809,10 +1355,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1884.0</v>
+        <v>1609.0</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -826,10 +1372,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1885.0</v>
+        <v>1610.0</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -843,10 +1389,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1886.0</v>
+        <v>1611.0</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -860,10 +1406,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1887.0</v>
+        <v>1612.0</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -877,10 +1423,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1888.0</v>
+        <v>1613.0</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -894,10 +1440,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1889.0</v>
+        <v>1614.0</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -911,10 +1457,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1890.0</v>
+        <v>1615.0</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -928,10 +1474,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1891.0</v>
+        <v>1616.0</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -945,10 +1491,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1892.0</v>
+        <v>1617.0</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -962,10 +1508,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1893.0</v>
+        <v>1618.0</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
@@ -979,10 +1525,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1894.0</v>
+        <v>1619.0</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -996,10 +1542,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1895.0</v>
+        <v>1620.0</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -1013,10 +1559,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1896.0</v>
+        <v>1621.0</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -1030,10 +1576,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1897.0</v>
+        <v>1622.0</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -1047,10 +1593,10 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1898.0</v>
+        <v>1623.0</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -1064,10 +1610,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1899.0</v>
+        <v>1624.0</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -1081,10 +1627,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1900.0</v>
+        <v>1625.0</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -1098,10 +1644,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1901.0</v>
+        <v>1626.0</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -1115,10 +1661,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1902.0</v>
+        <v>1627.0</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
@@ -1132,10 +1678,10 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1903.0</v>
+        <v>1628.0</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -1149,10 +1695,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1904.0</v>
+        <v>1629.0</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -1166,10 +1712,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1905.0</v>
+        <v>1630.0</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -1183,10 +1729,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1906.0</v>
+        <v>1631.0</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
@@ -1200,10 +1746,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1907.0</v>
+        <v>1632.0</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
@@ -1217,10 +1763,10 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1908.0</v>
+        <v>1633.0</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
@@ -1234,10 +1780,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1909.0</v>
+        <v>1634.0</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
@@ -1251,10 +1797,10 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1910.0</v>
+        <v>1635.0</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
@@ -1268,10 +1814,10 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1911.0</v>
+        <v>1636.0</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -1285,10 +1831,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1912.0</v>
+        <v>1637.0</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -1302,10 +1848,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1913.0</v>
+        <v>1638.0</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
@@ -1319,10 +1865,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1914.0</v>
+        <v>1639.0</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
@@ -1336,10 +1882,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1915.0</v>
+        <v>1640.0</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
@@ -1353,10 +1899,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1916.0</v>
+        <v>1641.0</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
@@ -1370,10 +1916,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1917.0</v>
+        <v>1642.0</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
@@ -1387,10 +1933,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1918.0</v>
+        <v>1643.0</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51">
@@ -1404,10 +1950,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1919.0</v>
+        <v>1644.0</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
@@ -1421,10 +1967,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1920.0</v>
+        <v>1645.0</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53">
@@ -1438,10 +1984,10 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1921.0</v>
+        <v>1646.0</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
@@ -1455,10 +2001,10 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1922.0</v>
+        <v>1647.0</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
@@ -1472,10 +2018,10 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1923.0</v>
+        <v>1648.0</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56">
@@ -1489,10 +2035,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1924.0</v>
+        <v>1649.0</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
@@ -1506,10 +2052,10 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1925.0</v>
+        <v>1650.0</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -1523,10 +2069,10 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>1926.0</v>
+        <v>1651.0</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59">
@@ -1540,10 +2086,10 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>1927.0</v>
+        <v>1652.0</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60">
@@ -1557,10 +2103,10 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>1928.0</v>
+        <v>1653.0</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61">
@@ -1574,10 +2120,10 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>1929.0</v>
+        <v>1654.0</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
@@ -1591,10 +2137,10 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1930.0</v>
+        <v>1655.0</v>
       </c>
       <c r="E62" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
@@ -1608,10 +2154,10 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>1931.0</v>
+        <v>1656.0</v>
       </c>
       <c r="E63" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64">
@@ -1625,10 +2171,10 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>1932.0</v>
+        <v>1657.0</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65">
@@ -1642,10 +2188,10 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>1933.0</v>
+        <v>1658.0</v>
       </c>
       <c r="E65" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
@@ -1659,10 +2205,10 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>1934.0</v>
+        <v>1659.0</v>
       </c>
       <c r="E66" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67">
@@ -1676,10 +2222,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>1935.0</v>
+        <v>1660.0</v>
       </c>
       <c r="E67" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
@@ -1693,10 +2239,10 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>1936.0</v>
+        <v>1661.0</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -1710,10 +2256,10 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>1937.0</v>
+        <v>1662.0</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70">
@@ -1727,10 +2273,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1938.0</v>
+        <v>1663.0</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71">
@@ -1744,10 +2290,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>1939.0</v>
+        <v>1664.0</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72">
@@ -1761,10 +2307,10 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1940.0</v>
+        <v>1665.0</v>
       </c>
       <c r="E72" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73">
@@ -1778,10 +2324,10 @@
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>1941.0</v>
+        <v>1666.0</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74">
@@ -1795,10 +2341,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>1942.0</v>
+        <v>1667.0</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75">
@@ -1812,10 +2358,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>1943.0</v>
+        <v>1668.0</v>
       </c>
       <c r="E75" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76">
@@ -1829,10 +2375,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>1944.0</v>
+        <v>1669.0</v>
       </c>
       <c r="E76" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77">
@@ -1846,10 +2392,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>1945.0</v>
+        <v>1670.0</v>
       </c>
       <c r="E77" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78">
@@ -1863,10 +2409,10 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>1946.0</v>
+        <v>1671.0</v>
       </c>
       <c r="E78" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79">
@@ -1880,10 +2426,10 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>1947.0</v>
+        <v>1672.0</v>
       </c>
       <c r="E79" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80">
@@ -1897,10 +2443,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>1948.0</v>
+        <v>1673.0</v>
       </c>
       <c r="E80" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81">
@@ -1914,10 +2460,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>1949.0</v>
+        <v>1674.0</v>
       </c>
       <c r="E81" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82">
@@ -1931,10 +2477,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>1950.0</v>
+        <v>1675.0</v>
       </c>
       <c r="E82" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83">
@@ -1948,10 +2494,10 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>1951.0</v>
+        <v>1676.0</v>
       </c>
       <c r="E83" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
@@ -1965,10 +2511,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>1952.0</v>
+        <v>1677.0</v>
       </c>
       <c r="E84" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85">
@@ -1982,10 +2528,10 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1953.0</v>
+        <v>1678.0</v>
       </c>
       <c r="E85" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86">
@@ -1999,10 +2545,10 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>1954.0</v>
+        <v>1679.0</v>
       </c>
       <c r="E86" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87">
@@ -2016,10 +2562,10 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>1955.0</v>
+        <v>1680.0</v>
       </c>
       <c r="E87" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88">
@@ -2033,10 +2579,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1956.0</v>
+        <v>1681.0</v>
       </c>
       <c r="E88" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89">
@@ -2050,10 +2596,10 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>1957.0</v>
+        <v>1682.0</v>
       </c>
       <c r="E89" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90">
@@ -2067,10 +2613,10 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>1958.0</v>
+        <v>1683.0</v>
       </c>
       <c r="E90" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91">
@@ -2084,10 +2630,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>1959.0</v>
+        <v>1684.0</v>
       </c>
       <c r="E91" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92">
@@ -2101,10 +2647,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>1960.0</v>
+        <v>1685.0</v>
       </c>
       <c r="E92" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
@@ -2118,10 +2664,10 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>1961.0</v>
+        <v>1686.0</v>
       </c>
       <c r="E93" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
@@ -2135,10 +2681,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>1962.0</v>
+        <v>1687.0</v>
       </c>
       <c r="E94" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95">
@@ -2152,10 +2698,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>1963.0</v>
+        <v>1688.0</v>
       </c>
       <c r="E95" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96">
@@ -2169,10 +2715,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>1964.0</v>
+        <v>1689.0</v>
       </c>
       <c r="E96" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97">
@@ -2186,10 +2732,10 @@
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>1965.0</v>
+        <v>1690.0</v>
       </c>
       <c r="E97" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98">
@@ -2203,10 +2749,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>1966.0</v>
+        <v>1691.0</v>
       </c>
       <c r="E98" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99">
@@ -2220,10 +2766,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>1967.0</v>
+        <v>1692.0</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
@@ -2237,10 +2783,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>1968.0</v>
+        <v>1693.0</v>
       </c>
       <c r="E100" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101">
@@ -2254,10 +2800,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>1969.0</v>
+        <v>1694.0</v>
       </c>
       <c r="E101" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102">
@@ -2271,10 +2817,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1970.0</v>
+        <v>1695.0</v>
       </c>
       <c r="E102" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103">
@@ -2288,10 +2834,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>1971.0</v>
+        <v>1696.0</v>
       </c>
       <c r="E103" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104">
@@ -2305,10 +2851,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1972.0</v>
+        <v>1697.0</v>
       </c>
       <c r="E104" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105">
@@ -2322,10 +2868,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1973.0</v>
+        <v>1698.0</v>
       </c>
       <c r="E105" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106">
@@ -2339,10 +2885,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>1974.0</v>
+        <v>1699.0</v>
       </c>
       <c r="E106" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107">
@@ -2356,10 +2902,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>1975.0</v>
+        <v>1700.0</v>
       </c>
       <c r="E107" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108">
@@ -2373,10 +2919,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>1976.0</v>
+        <v>1701.0</v>
       </c>
       <c r="E108" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109">
@@ -2390,10 +2936,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>1977.0</v>
+        <v>1702.0</v>
       </c>
       <c r="E109" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110">
@@ -2407,10 +2953,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>1978.0</v>
+        <v>1703.0</v>
       </c>
       <c r="E110" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111">
@@ -2424,10 +2970,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>1979.0</v>
+        <v>1704.0</v>
       </c>
       <c r="E111" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112">
@@ -2441,10 +2987,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>1980.0</v>
+        <v>1705.0</v>
       </c>
       <c r="E112" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113">
@@ -2458,10 +3004,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>1981.0</v>
+        <v>1706.0</v>
       </c>
       <c r="E113" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114">
@@ -2475,10 +3021,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>1982.0</v>
+        <v>1707.0</v>
       </c>
       <c r="E114" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115">
@@ -2492,10 +3038,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>1983.0</v>
+        <v>1708.0</v>
       </c>
       <c r="E115" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116">
@@ -2509,10 +3055,10 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>1984.0</v>
+        <v>1709.0</v>
       </c>
       <c r="E116" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117">
@@ -2526,10 +3072,10 @@
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>1985.0</v>
+        <v>1710.0</v>
       </c>
       <c r="E117" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118">
@@ -2543,10 +3089,10 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>1986.0</v>
+        <v>1711.0</v>
       </c>
       <c r="E118" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119">
@@ -2560,10 +3106,10 @@
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1987.0</v>
+        <v>1712.0</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120">
@@ -2577,10 +3123,10 @@
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>1988.0</v>
+        <v>1713.0</v>
       </c>
       <c r="E120" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121">
@@ -2594,10 +3140,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>1989.0</v>
+        <v>1714.0</v>
       </c>
       <c r="E121" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122">
@@ -2611,10 +3157,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>1990.0</v>
+        <v>1715.0</v>
       </c>
       <c r="E122" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123">
@@ -2628,10 +3174,10 @@
         <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>1991.0</v>
+        <v>1716.0</v>
       </c>
       <c r="E123" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124">
@@ -2645,10 +3191,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>1992.0</v>
+        <v>1717.0</v>
       </c>
       <c r="E124" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125">
@@ -2662,10 +3208,10 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1993.0</v>
+        <v>1718.0</v>
       </c>
       <c r="E125" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126">
@@ -2679,10 +3225,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>1994.0</v>
+        <v>1719.0</v>
       </c>
       <c r="E126" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127">
@@ -2696,10 +3242,10 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1995.0</v>
+        <v>1720.0</v>
       </c>
       <c r="E127" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128">
@@ -2713,10 +3259,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1996.0</v>
+        <v>1721.0</v>
       </c>
       <c r="E128" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129">
@@ -2730,10 +3276,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>1997.0</v>
+        <v>1722.0</v>
       </c>
       <c r="E129" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130">
@@ -2747,10 +3293,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1998.0</v>
+        <v>1723.0</v>
       </c>
       <c r="E130" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131">
@@ -2764,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1999.0</v>
+        <v>1724.0</v>
       </c>
       <c r="E131" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132">
@@ -2781,10 +3327,10 @@
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>2000.0</v>
+        <v>1725.0</v>
       </c>
       <c r="E132" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133">
@@ -2798,10 +3344,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>2001.0</v>
+        <v>1726.0</v>
       </c>
       <c r="E133" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134">
@@ -2815,10 +3361,10 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>2002.0</v>
+        <v>1727.0</v>
       </c>
       <c r="E134" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135">
@@ -2832,10 +3378,10 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>2003.0</v>
+        <v>1728.0</v>
       </c>
       <c r="E135" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136">
@@ -2849,10 +3395,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>2004.0</v>
+        <v>1729.0</v>
       </c>
       <c r="E136" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137">
@@ -2866,10 +3412,10 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>2005.0</v>
+        <v>1730.0</v>
       </c>
       <c r="E137" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138">
@@ -2883,10 +3429,10 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>2006.0</v>
+        <v>1731.0</v>
       </c>
       <c r="E138" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139">
@@ -2900,10 +3446,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>2007.0</v>
+        <v>1732.0</v>
       </c>
       <c r="E139" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
@@ -2917,10 +3463,10 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>2008.0</v>
+        <v>1733.0</v>
       </c>
       <c r="E140" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141">
@@ -2934,10 +3480,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>2009.0</v>
+        <v>1734.0</v>
       </c>
       <c r="E141" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142">
@@ -2951,10 +3497,4787 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
+        <v>1735.0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1736.0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1737.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1738.0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1741.0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1742.0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1743.0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1744.0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1745.0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1746.0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1747.0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1748.0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1749.0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1750.0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1751.0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1752.0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1753.0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1754.0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1755.0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1756.0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1757.0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1758.0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1761.0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1762.0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1763.0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1764.0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1765.0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1766.0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1767.0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1768.0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1769.0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1770.0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1771.0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1772.0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1773.0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1774.0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1775.0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1776.0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1777.0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1778.0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1781.0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1782.0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1783.0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1784.0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1785.0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1786.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1787.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1788.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1789.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1790.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1791.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1792.0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1793.0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1794.0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1795.0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1796.0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1797.0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1798.0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1802.0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1803.0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1804.0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1805.0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1806.0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1807.0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1808.0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1809.0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1810.0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1811.0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1812.0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1813.0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1814.0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1815.0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1816.0</v>
+      </c>
+      <c r="E223" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1817.0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1818.0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="E226" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1821.0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1822.0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1823.0</v>
+      </c>
+      <c r="E230" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1824.0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1825.0</v>
+      </c>
+      <c r="E232" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1826.0</v>
+      </c>
+      <c r="E233" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1827.0</v>
+      </c>
+      <c r="E234" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1828.0</v>
+      </c>
+      <c r="E235" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1829.0</v>
+      </c>
+      <c r="E236" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1830.0</v>
+      </c>
+      <c r="E237" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1831.0</v>
+      </c>
+      <c r="E238" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1832.0</v>
+      </c>
+      <c r="E239" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1833.0</v>
+      </c>
+      <c r="E240" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1834.0</v>
+      </c>
+      <c r="E241" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1835.0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1836.0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1837.0</v>
+      </c>
+      <c r="E244" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1838.0</v>
+      </c>
+      <c r="E245" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="E247" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1841.0</v>
+      </c>
+      <c r="E248" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1842.0</v>
+      </c>
+      <c r="E249" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1843.0</v>
+      </c>
+      <c r="E250" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1844.0</v>
+      </c>
+      <c r="E251" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1845.0</v>
+      </c>
+      <c r="E252" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1846.0</v>
+      </c>
+      <c r="E253" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1847.0</v>
+      </c>
+      <c r="E254" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1848.0</v>
+      </c>
+      <c r="E255" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1849.0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1850.0</v>
+      </c>
+      <c r="E257" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1851.0</v>
+      </c>
+      <c r="E258" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1852.0</v>
+      </c>
+      <c r="E259" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="E260" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1854.0</v>
+      </c>
+      <c r="E261" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1855.0</v>
+      </c>
+      <c r="E262" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1856.0</v>
+      </c>
+      <c r="E263" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1857.0</v>
+      </c>
+      <c r="E264" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1858.0</v>
+      </c>
+      <c r="E265" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="E266" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="E267" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1861.0</v>
+      </c>
+      <c r="E268" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1862.0</v>
+      </c>
+      <c r="E269" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="E270" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1864.0</v>
+      </c>
+      <c r="E271" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1865.0</v>
+      </c>
+      <c r="E272" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1866.0</v>
+      </c>
+      <c r="E273" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1867.0</v>
+      </c>
+      <c r="E274" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1868.0</v>
+      </c>
+      <c r="E275" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1869.0</v>
+      </c>
+      <c r="E276" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1870.0</v>
+      </c>
+      <c r="E277" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1871.0</v>
+      </c>
+      <c r="E278" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1872.0</v>
+      </c>
+      <c r="E279" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1873.0</v>
+      </c>
+      <c r="E280" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1874.0</v>
+      </c>
+      <c r="E281" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1875.0</v>
+      </c>
+      <c r="E282" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1876.0</v>
+      </c>
+      <c r="E283" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1877.0</v>
+      </c>
+      <c r="E284" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1878.0</v>
+      </c>
+      <c r="E285" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="E286" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="E287" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1881.0</v>
+      </c>
+      <c r="E288" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1882.0</v>
+      </c>
+      <c r="E289" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1883.0</v>
+      </c>
+      <c r="E290" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1884.0</v>
+      </c>
+      <c r="E291" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1885.0</v>
+      </c>
+      <c r="E292" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1886.0</v>
+      </c>
+      <c r="E293" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1887.0</v>
+      </c>
+      <c r="E294" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1888.0</v>
+      </c>
+      <c r="E295" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1889.0</v>
+      </c>
+      <c r="E296" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1890.0</v>
+      </c>
+      <c r="E297" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1891.0</v>
+      </c>
+      <c r="E298" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1892.0</v>
+      </c>
+      <c r="E299" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1893.0</v>
+      </c>
+      <c r="E300" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1894.0</v>
+      </c>
+      <c r="E301" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1895.0</v>
+      </c>
+      <c r="E302" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1896.0</v>
+      </c>
+      <c r="E303" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1897.0</v>
+      </c>
+      <c r="E304" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1898.0</v>
+      </c>
+      <c r="E305" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="E306" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="E307" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1901.0</v>
+      </c>
+      <c r="E308" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1902.0</v>
+      </c>
+      <c r="E309" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1903.0</v>
+      </c>
+      <c r="E310" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1904.0</v>
+      </c>
+      <c r="E311" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1905.0</v>
+      </c>
+      <c r="E312" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1906.0</v>
+      </c>
+      <c r="E313" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1907.0</v>
+      </c>
+      <c r="E314" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1908.0</v>
+      </c>
+      <c r="E315" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1909.0</v>
+      </c>
+      <c r="E316" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="E317" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1911.0</v>
+      </c>
+      <c r="E318" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1912.0</v>
+      </c>
+      <c r="E319" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1913.0</v>
+      </c>
+      <c r="E320" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1914.0</v>
+      </c>
+      <c r="E321" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1915.0</v>
+      </c>
+      <c r="E322" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1916.0</v>
+      </c>
+      <c r="E323" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1917.0</v>
+      </c>
+      <c r="E324" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1918.0</v>
+      </c>
+      <c r="E325" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="E326" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="E327" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1921.0</v>
+      </c>
+      <c r="E328" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1922.0</v>
+      </c>
+      <c r="E329" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1923.0</v>
+      </c>
+      <c r="E330" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1924.0</v>
+      </c>
+      <c r="E331" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1925.0</v>
+      </c>
+      <c r="E332" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1926.0</v>
+      </c>
+      <c r="E333" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1927.0</v>
+      </c>
+      <c r="E334" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1928.0</v>
+      </c>
+      <c r="E335" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1929.0</v>
+      </c>
+      <c r="E336" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="E337" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1931.0</v>
+      </c>
+      <c r="E338" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1932.0</v>
+      </c>
+      <c r="E339" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="E340" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1934.0</v>
+      </c>
+      <c r="E341" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1935.0</v>
+      </c>
+      <c r="E342" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1936.0</v>
+      </c>
+      <c r="E343" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1937.0</v>
+      </c>
+      <c r="E344" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="E345" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1939.0</v>
+      </c>
+      <c r="E346" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="E347" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1941.0</v>
+      </c>
+      <c r="E348" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1942.0</v>
+      </c>
+      <c r="E349" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1943.0</v>
+      </c>
+      <c r="E350" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1944.0</v>
+      </c>
+      <c r="E351" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="E352" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="E353" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1947.0</v>
+      </c>
+      <c r="E354" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1948.0</v>
+      </c>
+      <c r="E355" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1949.0</v>
+      </c>
+      <c r="E356" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="E357" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="E358" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1952.0</v>
+      </c>
+      <c r="E359" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1953.0</v>
+      </c>
+      <c r="E360" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="E361" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1955.0</v>
+      </c>
+      <c r="E362" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1956.0</v>
+      </c>
+      <c r="E363" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" t="n">
+        <v>1957.0</v>
+      </c>
+      <c r="E364" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="E365" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="E366" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="E367" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="E368" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1962.0</v>
+      </c>
+      <c r="E369" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1963.0</v>
+      </c>
+      <c r="E370" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1964.0</v>
+      </c>
+      <c r="E371" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="E372" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1966.0</v>
+      </c>
+      <c r="E373" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="E374" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="E375" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" t="n">
+        <v>1969.0</v>
+      </c>
+      <c r="E376" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="E377" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="E378" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="E379" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B380" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="E380" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="E381" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B382" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="E382" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="E383" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="E384" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="E385" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="E386" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="E387" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="E388" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="E389" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="E390" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="E391" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="E392" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="E393" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="E394" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" t="s">
+        <v>6</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="E395" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" t="s">
+        <v>6</v>
+      </c>
+      <c r="D396" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="E396" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="E397" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="E398" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="E399" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="E400" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B401" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="E401" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="E402" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="E403" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E404" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E405" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>6</v>
+      </c>
+      <c r="D406" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E406" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E407" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E408" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E409" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C410" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E410" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E411" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+      <c r="C412" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E412" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E413" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E414" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E415" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E416" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" t="n">
         <v>2010.0</v>
       </c>
-      <c r="E142" t="s">
-        <v>147</v>
+      <c r="E417" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E418" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B419" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E419" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+      <c r="C420" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E420" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B421" t="s">
+        <v>5</v>
+      </c>
+      <c r="C421" t="s">
+        <v>6</v>
+      </c>
+      <c r="D421" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E421" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B422" t="s">
+        <v>5</v>
+      </c>
+      <c r="C422" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E422" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+      <c r="C423" t="s">
+        <v>6</v>
+      </c>
+      <c r="D423" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E423" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2972,50 +8295,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
